--- a/back-end/app/momentum_strategy.xlsx
+++ b/back-end/app/momentum_strategy.xlsx
@@ -52,154 +52,154 @@
     <t>HQM Score</t>
   </si>
   <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>DLTR</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>VLO</t>
+  </si>
+  <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>WMB</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>HRB</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>HST</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>NLSN</t>
+  </si>
+  <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>EIX</t>
+  </si>
+  <si>
+    <t>HSY</t>
+  </si>
+  <si>
+    <t>MRO</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
     <t>MOS</t>
   </si>
   <si>
-    <t>MRO</t>
-  </si>
-  <si>
-    <t>NUE</t>
-  </si>
-  <si>
-    <t>ADM</t>
-  </si>
-  <si>
-    <t>APA</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>VLO</t>
-  </si>
-  <si>
-    <t>MPC</t>
-  </si>
-  <si>
-    <t>DVN</t>
+    <t>EXR</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>AZO</t>
+  </si>
+  <si>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>DTE</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>ANTM</t>
+  </si>
+  <si>
+    <t>MO</t>
   </si>
   <si>
     <t>HES</t>
   </si>
   <si>
-    <t>OXY</t>
-  </si>
-  <si>
-    <t>IRM</t>
-  </si>
-  <si>
-    <t>EXC</t>
-  </si>
-  <si>
-    <t>HAL</t>
-  </si>
-  <si>
-    <t>MCK</t>
-  </si>
-  <si>
-    <t>DLTR</t>
-  </si>
-  <si>
-    <t>WMB</t>
-  </si>
-  <si>
-    <t>PSA</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>VRTX</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>NEM</t>
-  </si>
-  <si>
-    <t>CVX</t>
-  </si>
-  <si>
-    <t>AZO</t>
-  </si>
-  <si>
-    <t>WRB</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>CTVA</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>SRE</t>
-  </si>
-  <si>
-    <t>CNP</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>PWR</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>EOG</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>HSY</t>
-  </si>
-  <si>
-    <t>OKE</t>
-  </si>
-  <si>
-    <t>ANTM</t>
-  </si>
-  <si>
-    <t>EXR</t>
-  </si>
-  <si>
-    <t>FANG</t>
-  </si>
-  <si>
-    <t>FMC</t>
-  </si>
-  <si>
-    <t>FTI</t>
-  </si>
-  <si>
-    <t>PXD</t>
-  </si>
-  <si>
-    <t>ULTA</t>
-  </si>
-  <si>
-    <t>CINF</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>EIX</t>
-  </si>
-  <si>
-    <t>NOV</t>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>PKG</t>
   </si>
 </sst>
 </file>
@@ -630,37 +630,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>75.83</v>
+        <v>80.45</v>
       </c>
       <c r="C2" s="3">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D2" s="4">
-        <v>1.40715376166456</v>
+        <v>2.304026963520982</v>
       </c>
       <c r="E2" s="4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>0.7942846684125965</v>
+        <v>0.842575337339155</v>
       </c>
       <c r="G2" s="4">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>0.910066718110532</v>
+        <v>0.2247117453172565</v>
       </c>
       <c r="I2" s="4">
-        <v>1</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J2" s="4">
-        <v>0.2261191461329333</v>
+        <v>0.08173667704101548</v>
       </c>
       <c r="K2" s="4">
-        <v>0.992</v>
+        <v>0.904</v>
       </c>
       <c r="L2" s="4">
-        <v>0.994</v>
+        <v>0.9590000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -668,37 +668,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>28.74</v>
+        <v>49.1</v>
       </c>
       <c r="C3" s="3">
-        <v>695</v>
+        <v>407</v>
       </c>
       <c r="D3" s="4">
-        <v>1.808083978336263</v>
+        <v>0.5827384055314782</v>
       </c>
       <c r="E3" s="4">
-        <v>0.996</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="F3" s="4">
-        <v>0.7038506228701802</v>
+        <v>0.3676679888309009</v>
       </c>
       <c r="G3" s="4">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="H3" s="4">
-        <v>0.5036415662405518</v>
+        <v>0.2351832375243984</v>
       </c>
       <c r="I3" s="4">
-        <v>0.992</v>
+        <v>0.9420000000000001</v>
       </c>
       <c r="J3" s="4">
-        <v>0.1997030259020223</v>
+        <v>0.09765964181381802</v>
       </c>
       <c r="K3" s="4">
-        <v>0.986</v>
+        <v>0.9420000000000001</v>
       </c>
       <c r="L3" s="4">
-        <v>0.991</v>
+        <v>0.9490000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -706,37 +706,37 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>173.97</v>
+        <v>157.64</v>
       </c>
       <c r="C4" s="3">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D4" s="4">
-        <v>1.243836100523787</v>
+        <v>1.144432090097315</v>
       </c>
       <c r="E4" s="4">
-        <v>0.986</v>
+        <v>0.99</v>
       </c>
       <c r="F4" s="4">
-        <v>0.647338487663275</v>
+        <v>0.5961587780581217</v>
       </c>
       <c r="G4" s="4">
-        <v>0.986</v>
+        <v>0.99</v>
       </c>
       <c r="H4" s="4">
-        <v>0.7138945225623937</v>
+        <v>0.6969243726467487</v>
       </c>
       <c r="I4" s="4">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
       <c r="J4" s="4">
-        <v>0.2494459862337493</v>
+        <v>0.05302673635428014</v>
       </c>
       <c r="K4" s="4">
-        <v>0.996</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="L4" s="4">
-        <v>0.991</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -744,37 +744,37 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>101.91</v>
+        <v>166.88</v>
       </c>
       <c r="C5" s="3">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="D5" s="4">
-        <v>0.7420327903973</v>
+        <v>0.4571816270431583</v>
       </c>
       <c r="E5" s="4">
-        <v>0.9620000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="F5" s="4">
-        <v>0.5390060484183373</v>
+        <v>0.627115173033662</v>
       </c>
       <c r="G5" s="4">
-        <v>0.976</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="H5" s="4">
-        <v>0.4453448511990384</v>
+        <v>0.280761577020557</v>
       </c>
       <c r="I5" s="4">
-        <v>0.99</v>
+        <v>0.9640000000000001</v>
       </c>
       <c r="J5" s="4">
-        <v>0.1730411435410643</v>
+        <v>0.07047026370554499</v>
       </c>
       <c r="K5" s="4">
-        <v>0.978</v>
+        <v>0.868</v>
       </c>
       <c r="L5" s="4">
-        <v>0.9765</v>
+        <v>0.9365000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -782,37 +782,37 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>46.017</v>
+        <v>82.303</v>
       </c>
       <c r="C6" s="3">
-        <v>434</v>
+        <v>243</v>
       </c>
       <c r="D6" s="4">
-        <v>1.663186967526525</v>
+        <v>0.7374314565583328</v>
       </c>
       <c r="E6" s="4">
-        <v>0.992</v>
+        <v>0.976</v>
       </c>
       <c r="F6" s="4">
-        <v>0.6526951359729128</v>
+        <v>0.3222557923905288</v>
       </c>
       <c r="G6" s="4">
-        <v>0.988</v>
+        <v>0.95</v>
       </c>
       <c r="H6" s="4">
-        <v>0.4203980568305065</v>
+        <v>0.2572618411870696</v>
       </c>
       <c r="I6" s="4">
-        <v>0.9840000000000001</v>
+        <v>0.9540000000000001</v>
       </c>
       <c r="J6" s="4">
-        <v>0.1400200162408635</v>
+        <v>0.07025818708232411</v>
       </c>
       <c r="K6" s="4">
-        <v>0.9359999999999999</v>
+        <v>0.866</v>
       </c>
       <c r="L6" s="4">
-        <v>0.975</v>
+        <v>0.9365</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -820,37 +820,37 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>107.68</v>
+        <v>100.11</v>
       </c>
       <c r="C7" s="3">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D7" s="4">
-        <v>1.37170607581976</v>
+        <v>0.5506390329171188</v>
       </c>
       <c r="E7" s="4">
-        <v>0.988</v>
+        <v>0.946</v>
       </c>
       <c r="F7" s="4">
-        <v>0.7957059108962504</v>
+        <v>0.3141244857425337</v>
       </c>
       <c r="G7" s="4">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
       <c r="H7" s="4">
-        <v>0.6836741974930641</v>
+        <v>0.3392516186565659</v>
       </c>
       <c r="I7" s="4">
-        <v>0.9940000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="J7" s="4">
-        <v>0.1177386963127849</v>
+        <v>0.06926804289993789</v>
       </c>
       <c r="K7" s="4">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="L7" s="4">
-        <v>0.9670000000000001</v>
+        <v>0.9319999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -858,37 +858,37 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>113.03</v>
+        <v>54.99</v>
       </c>
       <c r="C8" s="3">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="D8" s="4">
-        <v>0.6687973365948388</v>
+        <v>0.4984882239410732</v>
       </c>
       <c r="E8" s="4">
-        <v>0.9540000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>0.3791253243879057</v>
+        <v>0.2653362105619811</v>
       </c>
       <c r="G8" s="4">
-        <v>0.948</v>
+        <v>0.92</v>
       </c>
       <c r="H8" s="4">
-        <v>0.3441758951335478</v>
+        <v>0.2946450817467441</v>
       </c>
       <c r="I8" s="4">
         <v>0.968</v>
       </c>
       <c r="J8" s="4">
-        <v>0.2022965833371658</v>
+        <v>0.081939129611707</v>
       </c>
       <c r="K8" s="4">
-        <v>0.988</v>
+        <v>0.9059999999999999</v>
       </c>
       <c r="L8" s="4">
-        <v>0.9645</v>
+        <v>0.9319999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -896,37 +896,37 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>93.17</v>
+        <v>315.28</v>
       </c>
       <c r="C9" s="3">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4">
-        <v>0.8264869851955755</v>
+        <v>0.6626998549408184</v>
       </c>
       <c r="E9" s="4">
-        <v>0.97</v>
+        <v>0.9640000000000001</v>
       </c>
       <c r="F9" s="4">
-        <v>0.3813485348503426</v>
+        <v>0.5434734072786743</v>
       </c>
       <c r="G9" s="4">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
       <c r="H9" s="4">
-        <v>0.2788637164837121</v>
+        <v>0.297411792177826</v>
       </c>
       <c r="I9" s="4">
-        <v>0.9399999999999999</v>
+        <v>0.972</v>
       </c>
       <c r="J9" s="4">
-        <v>0.1634957485215019</v>
+        <v>0.04720040293271941</v>
       </c>
       <c r="K9" s="4">
-        <v>0.97</v>
+        <v>0.802</v>
       </c>
       <c r="L9" s="4">
-        <v>0.9575</v>
+        <v>0.9315</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -934,37 +934,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>65.28</v>
+        <v>23.26</v>
       </c>
       <c r="C10" s="3">
-        <v>306</v>
+        <v>859</v>
       </c>
       <c r="D10" s="4">
-        <v>2.331799154417274</v>
+        <v>0.3448376004096072</v>
       </c>
       <c r="E10" s="4">
+        <v>0.894</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.1834789056540183</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.8440000000000001</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.2623400672645341</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.958</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.2571436913871301</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.998</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.6383224359224748</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.9840000000000001</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.3638530350191891</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.972</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.1141722536898827</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.8740000000000001</v>
-      </c>
       <c r="L10" s="4">
-        <v>0.9570000000000001</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -972,37 +972,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>116.76</v>
+        <v>33.671</v>
       </c>
       <c r="C11" s="3">
-        <v>171</v>
+        <v>593</v>
       </c>
       <c r="D11" s="4">
-        <v>0.7467359198293095</v>
+        <v>0.5835769641079904</v>
       </c>
       <c r="E11" s="4">
-        <v>0.9640000000000001</v>
+        <v>0.9540000000000001</v>
       </c>
       <c r="F11" s="4">
-        <v>0.3052070193108641</v>
+        <v>0.2618525117375132</v>
       </c>
       <c r="G11" s="4">
-        <v>0.912</v>
+        <v>0.9179999999999999</v>
       </c>
       <c r="H11" s="4">
-        <v>0.297015969241089</v>
+        <v>0.2623585422356984</v>
       </c>
       <c r="I11" s="4">
-        <v>0.9520000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="J11" s="4">
-        <v>0.1821133643160799</v>
+        <v>0.06712573392220345</v>
       </c>
       <c r="K11" s="4">
-        <v>0.9840000000000001</v>
+        <v>0.856</v>
       </c>
       <c r="L11" s="4">
-        <v>0.9530000000000001</v>
+        <v>0.9219999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1010,37 +1010,37 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>63.35</v>
+        <v>93.45</v>
       </c>
       <c r="C12" s="3">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="D12" s="4">
-        <v>1.722295361360916</v>
+        <v>0.6137240296512698</v>
       </c>
       <c r="E12" s="4">
-        <v>0.9940000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="F12" s="4">
-        <v>0.849876236555022</v>
+        <v>0.415012813039335</v>
       </c>
       <c r="G12" s="4">
-        <v>0.998</v>
+        <v>0.968</v>
       </c>
       <c r="H12" s="4">
-        <v>0.7701327274691366</v>
+        <v>0.3571774947503217</v>
       </c>
       <c r="I12" s="4">
-        <v>0.998</v>
+        <v>0.9840000000000001</v>
       </c>
       <c r="J12" s="4">
-        <v>0.09709253202748798</v>
+        <v>0.01997202551365438</v>
       </c>
       <c r="K12" s="4">
-        <v>0.8059999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="L12" s="4">
-        <v>0.9490000000000001</v>
+        <v>0.9025</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1048,37 +1048,37 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>60.59</v>
+        <v>403.9</v>
       </c>
       <c r="C13" s="3">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4">
-        <v>0.562896753346662</v>
+        <v>0.5127766298281092</v>
       </c>
       <c r="E13" s="4">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F13" s="4">
-        <v>0.301456801583305</v>
+        <v>0.2470877096796317</v>
       </c>
       <c r="G13" s="4">
-        <v>0.904</v>
+        <v>0.91</v>
       </c>
       <c r="H13" s="4">
-        <v>0.3895945946950619</v>
+        <v>0.1547170253536443</v>
       </c>
       <c r="I13" s="4">
-        <v>0.982</v>
+        <v>0.85</v>
       </c>
       <c r="J13" s="4">
-        <v>0.1699115111540982</v>
+        <v>0.0809500409555146</v>
       </c>
       <c r="K13" s="4">
-        <v>0.976</v>
+        <v>0.9</v>
       </c>
       <c r="L13" s="4">
-        <v>0.948</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1086,37 +1086,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>52.33</v>
+        <v>165.74</v>
       </c>
       <c r="C14" s="3">
-        <v>382</v>
+        <v>120</v>
       </c>
       <c r="D14" s="4">
-        <v>0.5907689208912638</v>
+        <v>0.2625972421812535</v>
       </c>
       <c r="E14" s="4">
-        <v>0.9420000000000001</v>
+        <v>0.836</v>
       </c>
       <c r="F14" s="4">
-        <v>0.4014477454667119</v>
+        <v>0.317888254472514</v>
       </c>
       <c r="G14" s="4">
-        <v>0.956</v>
+        <v>0.948</v>
       </c>
       <c r="H14" s="4">
-        <v>0.2591621356006445</v>
+        <v>0.2962065951445674</v>
       </c>
       <c r="I14" s="4">
-        <v>0.9279999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="J14" s="4">
-        <v>0.1623996647518184</v>
+        <v>0.0599801697842742</v>
       </c>
       <c r="K14" s="4">
-        <v>0.966</v>
+        <v>0.838</v>
       </c>
       <c r="L14" s="4">
-        <v>0.948</v>
+        <v>0.8979999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1124,37 +1124,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>41</v>
+        <v>28.508</v>
       </c>
       <c r="C15" s="3">
-        <v>487</v>
+        <v>701</v>
       </c>
       <c r="D15" s="4">
-        <v>1.042761915435018</v>
+        <v>0.3260291708260638</v>
       </c>
       <c r="E15" s="4">
-        <v>0.982</v>
+        <v>0.878</v>
       </c>
       <c r="F15" s="4">
-        <v>0.5236602508601769</v>
+        <v>0.1647214104816976</v>
       </c>
       <c r="G15" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.2977064038455338</v>
+      </c>
+      <c r="I15" s="4">
         <v>0.9740000000000001</v>
       </c>
-      <c r="H15" s="4">
-        <v>0.4238381953635948</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.986</v>
-      </c>
       <c r="J15" s="4">
-        <v>0.1016122818312668</v>
+        <v>0.08813096226926359</v>
       </c>
       <c r="K15" s="4">
-        <v>0.83</v>
+        <v>0.9179999999999999</v>
       </c>
       <c r="L15" s="4">
-        <v>0.9430000000000001</v>
+        <v>0.8975</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1162,37 +1162,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>344.22</v>
+        <v>273.92</v>
       </c>
       <c r="C16" s="3">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4">
-        <v>0.7478194634860577</v>
+        <v>0.2496703012222491</v>
       </c>
       <c r="E16" s="4">
-        <v>0.966</v>
+        <v>0.8240000000000001</v>
       </c>
       <c r="F16" s="4">
-        <v>0.6174357066928269</v>
+        <v>0.4955111666758747</v>
       </c>
       <c r="G16" s="4">
-        <v>0.982</v>
+        <v>0.9840000000000001</v>
       </c>
       <c r="H16" s="4">
-        <v>0.3194110180654812</v>
+        <v>0.185263204902792</v>
       </c>
       <c r="I16" s="4">
-        <v>0.9620000000000001</v>
+        <v>0.892</v>
       </c>
       <c r="J16" s="4">
-        <v>0.1091522269773003</v>
+        <v>0.0752139344343342</v>
       </c>
       <c r="K16" s="4">
-        <v>0.856</v>
+        <v>0.888</v>
       </c>
       <c r="L16" s="4">
-        <v>0.9415</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1200,37 +1200,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>175.16</v>
+        <v>38.3</v>
       </c>
       <c r="C17" s="3">
-        <v>114</v>
+        <v>522</v>
       </c>
       <c r="D17" s="4">
-        <v>0.4966360193281501</v>
+        <v>1.291027815588135</v>
       </c>
       <c r="E17" s="4">
-        <v>0.9179999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="F17" s="4">
-        <v>0.7204374489357159</v>
+        <v>0.4901876122036956</v>
       </c>
       <c r="G17" s="4">
-        <v>0.992</v>
+        <v>0.982</v>
       </c>
       <c r="H17" s="4">
-        <v>0.372907388206789</v>
+        <v>0.351499637175487</v>
       </c>
       <c r="I17" s="4">
-        <v>0.976</v>
+        <v>0.982</v>
       </c>
       <c r="J17" s="4">
-        <v>0.1102536253962837</v>
+        <v>0.001107463646667721</v>
       </c>
       <c r="K17" s="4">
-        <v>0.862</v>
+        <v>0.618</v>
       </c>
       <c r="L17" s="4">
-        <v>0.9369999999999999</v>
+        <v>0.8935</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1238,37 +1238,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>36.84</v>
+        <v>34.23</v>
       </c>
       <c r="C18" s="3">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="D18" s="4">
-        <v>0.6496543881985578</v>
+        <v>1.034242171942817</v>
       </c>
       <c r="E18" s="4">
-        <v>0.9520000000000001</v>
+        <v>0.986</v>
       </c>
       <c r="F18" s="4">
-        <v>0.273804818184577</v>
+        <v>0.4805282672083968</v>
       </c>
       <c r="G18" s="4">
-        <v>0.884</v>
+        <v>0.978</v>
       </c>
       <c r="H18" s="4">
-        <v>0.26551277131025</v>
+        <v>0.3369281632478423</v>
       </c>
       <c r="I18" s="4">
-        <v>0.9359999999999999</v>
+        <v>0.978</v>
       </c>
       <c r="J18" s="4">
-        <v>0.1464652102509652</v>
+        <v>0.0002771413200255327</v>
       </c>
       <c r="K18" s="4">
-        <v>0.948</v>
+        <v>0.616</v>
       </c>
       <c r="L18" s="4">
-        <v>0.9299999999999999</v>
+        <v>0.8895</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1276,37 +1276,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>424.9</v>
+        <v>32.25</v>
       </c>
       <c r="C19" s="3">
-        <v>47</v>
+        <v>620</v>
       </c>
       <c r="D19" s="4">
-        <v>0.5951972164291541</v>
+        <v>0.3572860560397518</v>
       </c>
       <c r="E19" s="4">
-        <v>0.9440000000000001</v>
+        <v>0.898</v>
       </c>
       <c r="F19" s="4">
-        <v>0.3321373412571169</v>
+        <v>0.2159447961473913</v>
       </c>
       <c r="G19" s="4">
-        <v>0.9340000000000001</v>
+        <v>0.882</v>
       </c>
       <c r="H19" s="4">
-        <v>0.2058888316788891</v>
+        <v>0.1879592900020921</v>
       </c>
       <c r="I19" s="4">
-        <v>0.8759999999999999</v>
+        <v>0.898</v>
       </c>
       <c r="J19" s="4">
-        <v>0.152846383601196</v>
+        <v>0.06967624541608422</v>
       </c>
       <c r="K19" s="4">
-        <v>0.956</v>
+        <v>0.862</v>
       </c>
       <c r="L19" s="4">
-        <v>0.9275</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1314,37 +1314,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>89.43000000000001</v>
+        <v>96.56</v>
       </c>
       <c r="C20" s="3">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D20" s="4">
-        <v>0.6857435349122881</v>
+        <v>0.2977283355519745</v>
       </c>
       <c r="E20" s="4">
-        <v>0.956</v>
+        <v>0.862</v>
       </c>
       <c r="F20" s="4">
-        <v>0.4275961577376264</v>
+        <v>0.294070710617394</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9640000000000001</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="H20" s="4">
-        <v>0.2150012959389865</v>
+        <v>0.1960961723862163</v>
       </c>
       <c r="I20" s="4">
-        <v>0.888</v>
+        <v>0.9059999999999999</v>
       </c>
       <c r="J20" s="4">
-        <v>0.1205921780343454</v>
+        <v>0.05830931860444793</v>
       </c>
       <c r="K20" s="4">
-        <v>0.898</v>
+        <v>0.8320000000000001</v>
       </c>
       <c r="L20" s="4">
-        <v>0.9265</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1352,37 +1352,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>285.4</v>
+        <v>162.24</v>
       </c>
       <c r="C21" s="3">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="D21" s="4">
-        <v>0.2969904676021085</v>
+        <v>0.3349345275792589</v>
       </c>
       <c r="E21" s="4">
-        <v>0.804</v>
+        <v>0.888</v>
       </c>
       <c r="F21" s="4">
-        <v>0.5392267069556107</v>
+        <v>0.3022327371510125</v>
       </c>
       <c r="G21" s="4">
-        <v>0.978</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H21" s="4">
-        <v>0.2528446650960918</v>
+        <v>0.2187666902971699</v>
       </c>
       <c r="I21" s="4">
-        <v>0.922</v>
+        <v>0.924</v>
       </c>
       <c r="J21" s="4">
-        <v>0.151790811645603</v>
+        <v>0.04344161765361147</v>
       </c>
       <c r="K21" s="4">
-        <v>0.9540000000000001</v>
+        <v>0.782</v>
       </c>
       <c r="L21" s="4">
-        <v>0.9145000000000001</v>
+        <v>0.8835</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1390,37 +1390,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>80.66</v>
+        <v>79.7</v>
       </c>
       <c r="C22" s="3">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D22" s="4">
-        <v>2.392614707878811</v>
+        <v>0.6235983555315808</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>0.9620000000000001</v>
       </c>
       <c r="F22" s="4">
-        <v>0.855484189666018</v>
+        <v>0.3954935452443674</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>0.966</v>
       </c>
       <c r="H22" s="4">
-        <v>0.2164562635451107</v>
+        <v>0.1833380275276957</v>
       </c>
       <c r="I22" s="4">
         <v>0.89</v>
       </c>
       <c r="J22" s="4">
-        <v>0.082103389938504</v>
+        <v>0.02129444371909142</v>
       </c>
       <c r="K22" s="4">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="L22" s="4">
-        <v>0.91</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1428,37 +1428,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>86.19</v>
+        <v>20.661</v>
       </c>
       <c r="C23" s="3">
-        <v>232</v>
+        <v>968</v>
       </c>
       <c r="D23" s="4">
-        <v>0.3011487036932007</v>
+        <v>0.200178606839806</v>
       </c>
       <c r="E23" s="4">
-        <v>0.8100000000000001</v>
+        <v>0.758</v>
       </c>
       <c r="F23" s="4">
-        <v>0.4813744491284734</v>
+        <v>0.2264038750491598</v>
       </c>
       <c r="G23" s="4">
-        <v>0.966</v>
+        <v>0.892</v>
       </c>
       <c r="H23" s="4">
-        <v>0.3162256826140187</v>
+        <v>0.211756480469436</v>
       </c>
       <c r="I23" s="4">
-        <v>0.958</v>
+        <v>0.92</v>
       </c>
       <c r="J23" s="4">
-        <v>0.1207354190913593</v>
+        <v>0.1023873547079227</v>
       </c>
       <c r="K23" s="4">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="L23" s="4">
-        <v>0.9085</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1466,37 +1466,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>177.75</v>
+        <v>53.12</v>
       </c>
       <c r="C24" s="3">
-        <v>112</v>
+        <v>376</v>
       </c>
       <c r="D24" s="4">
-        <v>0.7902258538050451</v>
+        <v>1.350746341204803</v>
       </c>
       <c r="E24" s="4">
-        <v>0.968</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="F24" s="4">
-        <v>0.5758277341319676</v>
+        <v>0.6773170362359411</v>
       </c>
       <c r="G24" s="4">
-        <v>0.98</v>
+        <v>0.998</v>
       </c>
       <c r="H24" s="4">
-        <v>0.3747579855965107</v>
+        <v>0.6747463062384566</v>
       </c>
       <c r="I24" s="4">
-        <v>0.978</v>
+        <v>0.996</v>
       </c>
       <c r="J24" s="4">
-        <v>0.07007384960872282</v>
+        <v>-0.02050265459174764</v>
       </c>
       <c r="K24" s="4">
-        <v>0.6859999999999999</v>
+        <v>0.522</v>
       </c>
       <c r="L24" s="4">
-        <v>0.903</v>
+        <v>0.8775000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1504,37 +1504,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>2359.42</v>
+        <v>26.441</v>
       </c>
       <c r="C25" s="3">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="D25" s="4">
-        <v>0.497557984106074</v>
+        <v>0.06099759730682158</v>
       </c>
       <c r="E25" s="4">
-        <v>0.92</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F25" s="4">
-        <v>0.2826323860102574</v>
+        <v>0.3824496517310997</v>
       </c>
       <c r="G25" s="4">
-        <v>0.89</v>
+        <v>0.9640000000000001</v>
       </c>
       <c r="H25" s="4">
-        <v>0.1709661206571124</v>
+        <v>0.4197323367422146</v>
       </c>
       <c r="I25" s="4">
-        <v>0.826</v>
+        <v>0.992</v>
       </c>
       <c r="J25" s="4">
-        <v>0.1575100271233965</v>
+        <v>0.2</v>
       </c>
       <c r="K25" s="4">
-        <v>0.9640000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="L25" s="4">
-        <v>0.9</v>
+        <v>0.8774999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1542,37 +1542,37 @@
         <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>71.06999999999999</v>
+        <v>33.1</v>
       </c>
       <c r="C26" s="3">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="D26" s="4">
-        <v>0.330174073948401</v>
+        <v>0.2106419314470359</v>
       </c>
       <c r="E26" s="4">
-        <v>0.826</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="F26" s="4">
-        <v>0.369492881628123</v>
+        <v>0.232256924749493</v>
       </c>
       <c r="G26" s="4">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H26" s="4">
-        <v>0.2859409698190705</v>
+        <v>0.3149459170849908</v>
       </c>
       <c r="I26" s="4">
-        <v>0.946</v>
+        <v>0.976</v>
       </c>
       <c r="J26" s="4">
-        <v>0.1139780268229237</v>
+        <v>0.06609742978240557</v>
       </c>
       <c r="K26" s="4">
-        <v>0.872</v>
+        <v>0.852</v>
       </c>
       <c r="L26" s="4">
-        <v>0.8959999999999999</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1580,37 +1580,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>48.97</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>408</v>
+        <v>284</v>
       </c>
       <c r="D27" s="4">
-        <v>0.4040399412481608</v>
+        <v>0.2665981391908323</v>
       </c>
       <c r="E27" s="4">
-        <v>0.8759999999999999</v>
+        <v>0.8440000000000001</v>
       </c>
       <c r="F27" s="4">
-        <v>0.3284578263672919</v>
+        <v>0.2143464915574745</v>
       </c>
       <c r="G27" s="4">
-        <v>0.9279999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="H27" s="4">
-        <v>0.1887095996764004</v>
+        <v>0.1678229919248111</v>
       </c>
       <c r="I27" s="4">
-        <v>0.858</v>
+        <v>0.872</v>
       </c>
       <c r="J27" s="4">
-        <v>0.1268572858872556</v>
+        <v>0.08150420657167617</v>
       </c>
       <c r="K27" s="4">
-        <v>0.914</v>
+        <v>0.902</v>
       </c>
       <c r="L27" s="4">
-        <v>0.8939999999999999</v>
+        <v>0.8745000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1618,37 +1618,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>62.42</v>
+        <v>229.47</v>
       </c>
       <c r="C28" s="3">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4">
-        <v>0.3291055135164633</v>
+        <v>0.4214533180884082</v>
       </c>
       <c r="E28" s="4">
-        <v>0.8240000000000001</v>
+        <v>0.914</v>
       </c>
       <c r="F28" s="4">
-        <v>0.401948272824902</v>
+        <v>0.2494734384685089</v>
       </c>
       <c r="G28" s="4">
-        <v>0.958</v>
+        <v>0.914</v>
       </c>
       <c r="H28" s="4">
-        <v>0.330270605115234</v>
+        <v>0.1296664002549415</v>
       </c>
       <c r="I28" s="4">
-        <v>0.9640000000000001</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="J28" s="4">
-        <v>0.1003471923046936</v>
+        <v>0.06295601377133786</v>
       </c>
       <c r="K28" s="4">
-        <v>0.8240000000000001</v>
+        <v>0.8440000000000001</v>
       </c>
       <c r="L28" s="4">
-        <v>0.8925000000000001</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1656,37 +1656,37 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>22.35</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="D29" s="4">
-        <v>0.353636185627227</v>
+        <v>1.390798512293864</v>
       </c>
       <c r="E29" s="4">
-        <v>0.8440000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="F29" s="4">
-        <v>0.1859320771275749</v>
+        <v>0.5243848135377511</v>
       </c>
       <c r="G29" s="4">
-        <v>0.794</v>
+        <v>0.986</v>
       </c>
       <c r="H29" s="4">
-        <v>0.2593289283472319</v>
+        <v>0.3811925944306637</v>
       </c>
       <c r="I29" s="4">
-        <v>0.93</v>
+        <v>0.988</v>
       </c>
       <c r="J29" s="4">
-        <v>0.255645753559563</v>
+        <v>-0.02141297332277825</v>
       </c>
       <c r="K29" s="4">
-        <v>0.998</v>
+        <v>0.514</v>
       </c>
       <c r="L29" s="4">
-        <v>0.8915000000000001</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1694,37 +1694,37 @@
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>175.66</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D30" s="4">
-        <v>0.2733092696323319</v>
+        <v>0.5070490342024976</v>
       </c>
       <c r="E30" s="4">
-        <v>0.782</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="F30" s="4">
-        <v>0.3494924439636761</v>
+        <v>0.1890691958703226</v>
       </c>
       <c r="G30" s="4">
-        <v>0.9359999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H30" s="4">
-        <v>0.299440116305385</v>
+        <v>0.111463290101542</v>
       </c>
       <c r="I30" s="4">
-        <v>0.9540000000000001</v>
+        <v>0.784</v>
       </c>
       <c r="J30" s="4">
-        <v>0.11812881288772</v>
+        <v>0.08327542358012624</v>
       </c>
       <c r="K30" s="4">
-        <v>0.892</v>
+        <v>0.9079999999999999</v>
       </c>
       <c r="L30" s="4">
-        <v>0.891</v>
+        <v>0.8694999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1732,37 +1732,37 @@
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>34.16</v>
+        <v>57.42</v>
       </c>
       <c r="C31" s="3">
-        <v>585</v>
+        <v>348</v>
       </c>
       <c r="D31" s="4">
-        <v>0.396426066471363</v>
+        <v>0.5582754047309425</v>
       </c>
       <c r="E31" s="4">
-        <v>0.872</v>
+        <v>0.948</v>
       </c>
       <c r="F31" s="4">
-        <v>0.2511012920239751</v>
+        <v>0.438610009213423</v>
       </c>
       <c r="G31" s="4">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="H31" s="4">
-        <v>0.2141603969800304</v>
+        <v>0.2076222037106233</v>
       </c>
       <c r="I31" s="4">
-        <v>0.8859999999999999</v>
+        <v>0.912</v>
       </c>
       <c r="J31" s="4">
-        <v>0.1317422246629027</v>
+        <v>0.004492515620114082</v>
       </c>
       <c r="K31" s="4">
-        <v>0.922</v>
+        <v>0.64</v>
       </c>
       <c r="L31" s="4">
-        <v>0.8875</v>
+        <v>0.8674999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1770,37 +1770,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>167.73</v>
+        <v>69.22</v>
       </c>
       <c r="C32" s="3">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="D32" s="4">
-        <v>0.39664647816949</v>
+        <v>0.2644204468355241</v>
       </c>
       <c r="E32" s="4">
-        <v>0.8740000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="F32" s="4">
-        <v>0.3710369256191857</v>
+        <v>0.2453698297882252</v>
       </c>
       <c r="G32" s="4">
-        <v>0.9420000000000001</v>
+        <v>0.9079999999999999</v>
       </c>
       <c r="H32" s="4">
-        <v>0.2533075318043598</v>
+        <v>0.235305944054941</v>
       </c>
       <c r="I32" s="4">
-        <v>0.924</v>
+        <v>0.9440000000000001</v>
       </c>
       <c r="J32" s="4">
-        <v>0.091922196676281</v>
+        <v>0.04158369137135043</v>
       </c>
       <c r="K32" s="4">
-        <v>0.782</v>
+        <v>0.774</v>
       </c>
       <c r="L32" s="4">
-        <v>0.8805000000000001</v>
+        <v>0.8665</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1808,37 +1808,37 @@
         <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>144.27</v>
+        <v>75.232</v>
       </c>
       <c r="C33" s="3">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="D33" s="4">
-        <v>0.4874574386538231</v>
+        <v>0.211452130087571</v>
       </c>
       <c r="E33" s="4">
-        <v>0.914</v>
+        <v>0.778</v>
       </c>
       <c r="F33" s="4">
-        <v>0.2144240708895745</v>
+        <v>0.2393778690975469</v>
       </c>
       <c r="G33" s="4">
-        <v>0.8320000000000001</v>
+        <v>0.904</v>
       </c>
       <c r="H33" s="4">
-        <v>0.3894608457773734</v>
+        <v>0.1400366965244934</v>
       </c>
       <c r="I33" s="4">
-        <v>0.98</v>
+        <v>0.8340000000000001</v>
       </c>
       <c r="J33" s="4">
-        <v>0.09275766688927481</v>
+        <v>0.1000931405731472</v>
       </c>
       <c r="K33" s="4">
-        <v>0.7859999999999999</v>
+        <v>0.946</v>
       </c>
       <c r="L33" s="4">
-        <v>0.878</v>
+        <v>0.8655</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1846,37 +1846,37 @@
         <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>194.6</v>
+        <v>76.29600000000001</v>
       </c>
       <c r="C34" s="3">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="D34" s="4">
-        <v>0.3549260917526565</v>
+        <v>0.1900086566891013</v>
       </c>
       <c r="E34" s="4">
-        <v>0.846</v>
+        <v>0.746</v>
       </c>
       <c r="F34" s="4">
-        <v>0.2478476351736967</v>
+        <v>0.3456045252377372</v>
       </c>
       <c r="G34" s="4">
-        <v>0.866</v>
+        <v>0.958</v>
       </c>
       <c r="H34" s="4">
-        <v>0.2227693210580282</v>
+        <v>0.2252038018155767</v>
       </c>
       <c r="I34" s="4">
-        <v>0.904</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="J34" s="4">
-        <v>0.1162128589744397</v>
+        <v>0.05540480788647417</v>
       </c>
       <c r="K34" s="4">
-        <v>0.882</v>
+        <v>0.82</v>
       </c>
       <c r="L34" s="4">
-        <v>0.8745000000000001</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1884,37 +1884,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>128.34</v>
+        <v>63.11</v>
       </c>
       <c r="C35" s="3">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="D35" s="4">
-        <v>0.9203970382067418</v>
+        <v>1.017208043462809</v>
       </c>
       <c r="E35" s="4">
-        <v>0.978</v>
+        <v>0.9840000000000001</v>
       </c>
       <c r="F35" s="4">
-        <v>0.3901671749566819</v>
+        <v>0.6258913697323154</v>
       </c>
       <c r="G35" s="4">
-        <v>0.9540000000000001</v>
+        <v>0.992</v>
       </c>
       <c r="H35" s="4">
-        <v>0.2123630722902315</v>
+        <v>0.7118403964449472</v>
       </c>
       <c r="I35" s="4">
-        <v>0.884</v>
+        <v>1</v>
       </c>
       <c r="J35" s="4">
-        <v>0.06870023125097896</v>
+        <v>-0.02648958382564226</v>
       </c>
       <c r="K35" s="4">
-        <v>0.6820000000000001</v>
+        <v>0.482</v>
       </c>
       <c r="L35" s="4">
-        <v>0.8745000000000001</v>
+        <v>0.8645</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1922,37 +1922,37 @@
         <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>34.11</v>
+        <v>208.15</v>
       </c>
       <c r="C36" s="3">
-        <v>586</v>
+        <v>96</v>
       </c>
       <c r="D36" s="4">
-        <v>0.2612574356116334</v>
+        <v>0.4842925740878962</v>
       </c>
       <c r="E36" s="4">
-        <v>0.762</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F36" s="4">
-        <v>0.2078326483507538</v>
+        <v>0.163955264979775</v>
       </c>
       <c r="G36" s="4">
-        <v>0.826</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H36" s="4">
-        <v>0.2906995921507569</v>
+        <v>0.0996607147991528</v>
       </c>
       <c r="I36" s="4">
-        <v>0.948</v>
+        <v>0.76</v>
       </c>
       <c r="J36" s="4">
-        <v>0.1467587859652967</v>
+        <v>0.09299763718130763</v>
       </c>
       <c r="K36" s="4">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="L36" s="4">
-        <v>0.8714999999999999</v>
+        <v>0.8595</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1960,37 +1960,37 @@
         <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>99.7</v>
+        <v>123.09</v>
       </c>
       <c r="C37" s="3">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="D37" s="4">
-        <v>0.2939515195361491</v>
+        <v>0.204580219508123</v>
       </c>
       <c r="E37" s="4">
-        <v>0.802</v>
+        <v>0.768</v>
       </c>
       <c r="F37" s="4">
-        <v>0.3295670133255255</v>
+        <v>0.2100360240625989</v>
       </c>
       <c r="G37" s="4">
-        <v>0.93</v>
+        <v>0.872</v>
       </c>
       <c r="H37" s="4">
-        <v>0.2119752366093898</v>
+        <v>0.1553988830759224</v>
       </c>
       <c r="I37" s="4">
-        <v>0.882</v>
+        <v>0.852</v>
       </c>
       <c r="J37" s="4">
-        <v>0.1099015783658014</v>
+        <v>0.09763742314340731</v>
       </c>
       <c r="K37" s="4">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L37" s="4">
-        <v>0.8685</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1998,37 +1998,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="2">
-        <v>615.72</v>
+        <v>43.36</v>
       </c>
       <c r="C38" s="3">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="D38" s="4">
-        <v>0.637329374215706</v>
+        <v>0.1154836644898852</v>
       </c>
       <c r="E38" s="4">
-        <v>0.948</v>
+        <v>0.652</v>
       </c>
       <c r="F38" s="4">
-        <v>0.2979088996034874</v>
+        <v>0.2138892662986805</v>
       </c>
       <c r="G38" s="4">
-        <v>0.9</v>
+        <v>0.878</v>
       </c>
       <c r="H38" s="4">
-        <v>0.2519881631048644</v>
+        <v>0.2088414407304033</v>
       </c>
       <c r="I38" s="4">
-        <v>0.92</v>
+        <v>0.9159999999999999</v>
       </c>
       <c r="J38" s="4">
-        <v>0.07554034925555754</v>
+        <v>0.1195500508816497</v>
       </c>
       <c r="K38" s="4">
-        <v>0.7020000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="L38" s="4">
-        <v>0.8675</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2036,37 +2036,37 @@
         <v>49</v>
       </c>
       <c r="B39" s="2">
-        <v>232.89</v>
+        <v>2202.81</v>
       </c>
       <c r="C39" s="3">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4">
-        <v>0.4529130317983787</v>
+        <v>0.4693195921569227</v>
       </c>
       <c r="E39" s="4">
-        <v>0.902</v>
+        <v>0.924</v>
       </c>
       <c r="F39" s="4">
-        <v>0.2882811227657682</v>
+        <v>0.1808131220929975</v>
       </c>
       <c r="G39" s="4">
+        <v>0.8420000000000001</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.09779043109789509</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.754</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.07619201920650738</v>
+      </c>
+      <c r="K39" s="4">
         <v>0.892</v>
       </c>
-      <c r="H39" s="4">
-        <v>0.1630186412925289</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0.8079999999999999</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0.1118820359633071</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0.868</v>
-      </c>
       <c r="L39" s="4">
-        <v>0.8674999999999999</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2074,37 +2074,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="2">
-        <v>74.93000000000001</v>
+        <v>75.23</v>
       </c>
       <c r="C40" s="3">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" s="4">
-        <v>0.5744342662169002</v>
+        <v>0.2056746786694441</v>
       </c>
       <c r="E40" s="4">
-        <v>0.9340000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="F40" s="4">
-        <v>0.1706977285679808</v>
+        <v>0.1803865313201215</v>
       </c>
       <c r="G40" s="4">
-        <v>0.774</v>
+        <v>0.84</v>
       </c>
       <c r="H40" s="4">
-        <v>0.2689416521520736</v>
+        <v>0.1591653719679362</v>
       </c>
       <c r="I40" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.09762850118569646</v>
+      </c>
+      <c r="K40" s="4">
         <v>0.9379999999999999</v>
       </c>
-      <c r="J40" s="4">
-        <v>0.1000952570357884</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0.8220000000000001</v>
-      </c>
       <c r="L40" s="4">
-        <v>0.867</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2112,37 +2112,37 @@
         <v>51</v>
       </c>
       <c r="B41" s="2">
-        <v>546.49</v>
+        <v>563.87</v>
       </c>
       <c r="C41" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="4">
-        <v>0.4107375262294207</v>
+        <v>0.5593366334285278</v>
       </c>
       <c r="E41" s="4">
-        <v>0.882</v>
+        <v>0.95</v>
       </c>
       <c r="F41" s="4">
-        <v>0.2686109989001974</v>
+        <v>0.1969006302963272</v>
       </c>
       <c r="G41" s="4">
+        <v>0.858</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.1726578190467604</v>
+      </c>
+      <c r="I41" s="4">
         <v>0.878</v>
       </c>
-      <c r="H41" s="4">
-        <v>0.1771781435339068</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0.838</v>
-      </c>
       <c r="J41" s="4">
-        <v>0.1098644002948543</v>
+        <v>0.02496921980530829</v>
       </c>
       <c r="K41" s="4">
-        <v>0.858</v>
+        <v>0.722</v>
       </c>
       <c r="L41" s="4">
-        <v>0.864</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2150,37 +2150,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="2">
-        <v>221.78</v>
+        <v>139.312</v>
       </c>
       <c r="C42" s="3">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D42" s="4">
-        <v>0.5522343459516081</v>
+        <v>0.2067203581585611</v>
       </c>
       <c r="E42" s="4">
-        <v>0.9279999999999999</v>
+        <v>0.774</v>
       </c>
       <c r="F42" s="4">
-        <v>0.2127411891204657</v>
+        <v>0.2024456491012391</v>
       </c>
       <c r="G42" s="4">
-        <v>0.83</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="H42" s="4">
-        <v>0.1383278957871228</v>
+        <v>0.1874113907424598</v>
       </c>
       <c r="I42" s="4">
-        <v>0.768</v>
+        <v>0.8959999999999999</v>
       </c>
       <c r="J42" s="4">
-        <v>0.1333105110538327</v>
+        <v>0.07145077247347327</v>
       </c>
       <c r="K42" s="4">
-        <v>0.93</v>
+        <v>0.872</v>
       </c>
       <c r="L42" s="4">
-        <v>0.864</v>
+        <v>0.8515</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2188,37 +2188,37 @@
         <v>53</v>
       </c>
       <c r="B43" s="2">
-        <v>143.1</v>
+        <v>45.35</v>
       </c>
       <c r="C43" s="3">
-        <v>139</v>
+        <v>441</v>
       </c>
       <c r="D43" s="4">
-        <v>0.9564305849213195</v>
+        <v>0.3054795093960385</v>
       </c>
       <c r="E43" s="4">
-        <v>0.98</v>
+        <v>0.866</v>
       </c>
       <c r="F43" s="4">
-        <v>0.2923496521894048</v>
+        <v>0.2476900481932491</v>
       </c>
       <c r="G43" s="4">
-        <v>0.898</v>
+        <v>0.912</v>
       </c>
       <c r="H43" s="4">
-        <v>0.1707619791224871</v>
+        <v>0.1249474580621467</v>
       </c>
       <c r="I43" s="4">
-        <v>0.8240000000000001</v>
+        <v>0.8079999999999999</v>
       </c>
       <c r="J43" s="4">
-        <v>0.08200257997904786</v>
+        <v>0.04817263297139581</v>
       </c>
       <c r="K43" s="4">
-        <v>0.748</v>
+        <v>0.8079999999999999</v>
       </c>
       <c r="L43" s="4">
-        <v>0.8625</v>
+        <v>0.8485</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2226,37 +2226,37 @@
         <v>54</v>
       </c>
       <c r="B44" s="2">
-        <v>141.27</v>
+        <v>65.81</v>
       </c>
       <c r="C44" s="3">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="D44" s="4">
-        <v>0.2637339691157294</v>
+        <v>0.1599877006256616</v>
       </c>
       <c r="E44" s="4">
-        <v>0.768</v>
+        <v>0.7020000000000001</v>
       </c>
       <c r="F44" s="4">
-        <v>0.519305186889955</v>
+        <v>0.2064790381718348</v>
       </c>
       <c r="G44" s="4">
-        <v>0.972</v>
+        <v>0.87</v>
       </c>
       <c r="H44" s="4">
-        <v>0.2950463364793911</v>
+        <v>0.2251877660403782</v>
       </c>
       <c r="I44" s="4">
-        <v>0.95</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J44" s="4">
-        <v>0.08514103995651238</v>
+        <v>0.07005341475522635</v>
       </c>
       <c r="K44" s="4">
-        <v>0.7559999999999999</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="L44" s="4">
-        <v>0.8614999999999999</v>
+        <v>0.8425</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2264,37 +2264,37 @@
         <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>9.09</v>
+        <v>154.72</v>
       </c>
       <c r="C45" s="3">
-        <v>2200</v>
+        <v>129</v>
       </c>
       <c r="D45" s="4">
-        <v>0.2911467457302027</v>
+        <v>0.6760080105501031</v>
       </c>
       <c r="E45" s="4">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F45" s="4">
-        <v>0.1002890167096055</v>
+        <v>0.4632797481061268</v>
       </c>
       <c r="G45" s="4">
-        <v>0.664</v>
+        <v>0.976</v>
       </c>
       <c r="H45" s="4">
-        <v>0.3517410590036231</v>
+        <v>0.2814926882725101</v>
       </c>
       <c r="I45" s="4">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="J45" s="4">
-        <v>0.2230128348459971</v>
+        <v>-0.0327579731731926</v>
       </c>
       <c r="K45" s="4">
-        <v>0.99</v>
+        <v>0.454</v>
       </c>
       <c r="L45" s="4">
-        <v>0.856</v>
+        <v>0.8414999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2302,37 +2302,37 @@
         <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>255.22</v>
+        <v>517.14</v>
       </c>
       <c r="C46" s="3">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D46" s="4">
-        <v>0.8654907288742907</v>
+        <v>0.3360564379832696</v>
       </c>
       <c r="E46" s="4">
-        <v>0.972</v>
+        <v>0.89</v>
       </c>
       <c r="F46" s="4">
-        <v>0.3725725923333039</v>
+        <v>0.1722939138808988</v>
       </c>
       <c r="G46" s="4">
-        <v>0.9440000000000001</v>
+        <v>0.828</v>
       </c>
       <c r="H46" s="4">
-        <v>0.2024273033526004</v>
+        <v>0.1240621562338444</v>
       </c>
       <c r="I46" s="4">
-        <v>0.872</v>
+        <v>0.8059999999999999</v>
       </c>
       <c r="J46" s="4">
-        <v>0.05827082140365436</v>
+        <v>0.06120641868323773</v>
       </c>
       <c r="K46" s="4">
-        <v>0.632</v>
+        <v>0.84</v>
       </c>
       <c r="L46" s="4">
-        <v>0.855</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2340,37 +2340,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="2">
-        <v>451.02</v>
+        <v>56.08</v>
       </c>
       <c r="C47" s="3">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="D47" s="4">
-        <v>0.3658293088992027</v>
+        <v>0.2655925692828303</v>
       </c>
       <c r="E47" s="4">
-        <v>0.8540000000000001</v>
+        <v>0.8420000000000001</v>
       </c>
       <c r="F47" s="4">
-        <v>0.2065835231557818</v>
+        <v>0.2017919620050148</v>
       </c>
       <c r="G47" s="4">
-        <v>0.8240000000000001</v>
+        <v>0.862</v>
       </c>
       <c r="H47" s="4">
-        <v>0.2091639431255085</v>
+        <v>0.1319902294222604</v>
       </c>
       <c r="I47" s="4">
-        <v>0.88</v>
+        <v>0.8220000000000001</v>
       </c>
       <c r="J47" s="4">
-        <v>0.1072313796913323</v>
+        <v>0.05886296636438373</v>
       </c>
       <c r="K47" s="4">
-        <v>0.852</v>
+        <v>0.8340000000000001</v>
       </c>
       <c r="L47" s="4">
-        <v>0.8525</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2378,37 +2378,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="2">
-        <v>146.67</v>
+        <v>103.68</v>
       </c>
       <c r="C48" s="3">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="D48" s="4">
-        <v>0.3620579698569469</v>
+        <v>0.6055006322695707</v>
       </c>
       <c r="E48" s="4">
-        <v>0.848</v>
+        <v>0.958</v>
       </c>
       <c r="F48" s="4">
-        <v>0.1968847346885925</v>
+        <v>0.2165839286604258</v>
       </c>
       <c r="G48" s="4">
-        <v>0.8079999999999999</v>
+        <v>0.884</v>
       </c>
       <c r="H48" s="4">
-        <v>0.2278060023761136</v>
+        <v>0.2066173796392736</v>
       </c>
       <c r="I48" s="4">
-        <v>0.9059999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="J48" s="4">
-        <v>0.1048396655572527</v>
+        <v>-0.0005852972495187668</v>
       </c>
       <c r="K48" s="4">
-        <v>0.846</v>
+        <v>0.594</v>
       </c>
       <c r="L48" s="4">
-        <v>0.852</v>
+        <v>0.8365</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2416,37 +2416,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="2">
-        <v>105.14</v>
+        <v>251.4</v>
       </c>
       <c r="C49" s="3">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D49" s="4">
-        <v>1.222367826140214</v>
+        <v>0.1760008549097077</v>
       </c>
       <c r="E49" s="4">
-        <v>0.9840000000000001</v>
+        <v>0.726</v>
       </c>
       <c r="F49" s="4">
-        <v>0.3831593941743816</v>
+        <v>0.1405266084504976</v>
       </c>
       <c r="G49" s="4">
-        <v>0.9520000000000001</v>
+        <v>0.784</v>
       </c>
       <c r="H49" s="4">
-        <v>0.2182865556388775</v>
+        <v>0.1554118380797652</v>
       </c>
       <c r="I49" s="4">
-        <v>0.894</v>
+        <v>0.8540000000000001</v>
       </c>
       <c r="J49" s="4">
-        <v>0.03498117939059672</v>
+        <v>0.1343662849825739</v>
       </c>
       <c r="K49" s="4">
-        <v>0.5479999999999999</v>
+        <v>0.982</v>
       </c>
       <c r="L49" s="4">
-        <v>0.8445</v>
+        <v>0.8365</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2454,37 +2454,37 @@
         <v>60</v>
       </c>
       <c r="B50" s="2">
-        <v>75.79000000000001</v>
+        <v>66.56</v>
       </c>
       <c r="C50" s="3">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D50" s="4">
-        <v>0.2361311538574055</v>
+        <v>0.2425545716134212</v>
       </c>
       <c r="E50" s="4">
-        <v>0.736</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="F50" s="4">
-        <v>0.2706411690042373</v>
+        <v>0.2243647169048443</v>
       </c>
       <c r="G50" s="4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="H50" s="4">
-        <v>0.165494752788678</v>
+        <v>0.09899947192192669</v>
       </c>
       <c r="I50" s="4">
-        <v>0.8140000000000001</v>
+        <v>0.758</v>
       </c>
       <c r="J50" s="4">
-        <v>0.1434232649999336</v>
+        <v>0.0710893418460059</v>
       </c>
       <c r="K50" s="4">
-        <v>0.9440000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="L50" s="4">
-        <v>0.8435</v>
+        <v>0.8335</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2492,37 +2492,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="2">
-        <v>20.5</v>
+        <v>165.2</v>
       </c>
       <c r="C51" s="3">
-        <v>975</v>
+        <v>121</v>
       </c>
       <c r="D51" s="4">
-        <v>0.5883036204283895</v>
+        <v>0.1702387032469896</v>
       </c>
       <c r="E51" s="4">
-        <v>0.9399999999999999</v>
+        <v>0.718</v>
       </c>
       <c r="F51" s="4">
-        <v>0.316808898998549</v>
+        <v>0.2226510734359468</v>
       </c>
       <c r="G51" s="4">
-        <v>0.9159999999999999</v>
+        <v>0.888</v>
       </c>
       <c r="H51" s="4">
-        <v>0.2623570887289094</v>
+        <v>0.1956248786448895</v>
       </c>
       <c r="I51" s="4">
-        <v>0.9340000000000001</v>
+        <v>0.904</v>
       </c>
       <c r="J51" s="4">
-        <v>0.04245748401988966</v>
+        <v>0.05375611310941431</v>
       </c>
       <c r="K51" s="4">
-        <v>0.5720000000000001</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="L51" s="4">
-        <v>0.8405</v>
+        <v>0.832</v>
       </c>
     </row>
   </sheetData>
